--- a/outputs_report/Table_simSum_historical.xlsx
+++ b/outputs_report/Table_simSum_historical.xlsx
@@ -345,25 +345,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12556966109173073</v>
+        <v>0.23970740326992024</v>
       </c>
       <c r="C5" t="n">
         <v>0.517</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6535356635260239</v>
+        <v>-0.6060840550651159</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.27599607268647997</v>
+        <v>-0.196229634840153</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09536002208510208</v>
+        <v>0.20691202397543695</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6104704337980977</v>
+        <v>0.7661123946570869</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6099757864094923</v>
+        <v>1.851168629144542</v>
       </c>
     </row>
   </sheetData>
@@ -411,22 +411,22 @@
         <v>0.06555341590682408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4933</v>
+        <v>0.4994</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04362494382315099</v>
+        <v>0.04363721101244466</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05699137157595631</v>
+        <v>0.0568792581878948</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06580877648283112</v>
+        <v>0.06556555449067433</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07492116363236292</v>
+        <v>0.07463659625828681</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08756290166043794</v>
+        <v>0.08802956058478767</v>
       </c>
     </row>
     <row r="3">
@@ -437,22 +437,22 @@
         <v>0.096320844630497</v>
       </c>
       <c r="C3" t="n">
-        <v>0.142</v>
+        <v>0.145</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09110125094786838</v>
+        <v>0.09093375997709403</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09986901775711567</v>
+        <v>0.09972855014391979</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1064011381672044</v>
+        <v>0.10643499024242487</v>
       </c>
       <c r="G3" t="n">
-        <v>0.11354558088574518</v>
+        <v>0.11333968857606655</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12356274041515744</v>
+        <v>0.1230834564037469</v>
       </c>
     </row>
     <row r="4">
@@ -463,22 +463,22 @@
         <v>0.595116859354557</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9093</v>
+        <v>0.9028</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.27012314996320186</v>
+        <v>-0.281157039799116</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0011457116177368697</v>
+        <v>-0.006979241493880042</v>
       </c>
       <c r="F4" t="n">
-        <v>0.19010189242551834</v>
+        <v>0.18556782707050368</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3922178305802789</v>
+        <v>0.398419700386967</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6969959245860892</v>
+        <v>0.7031648335539682</v>
       </c>
     </row>
     <row r="5">
@@ -489,22 +489,22 @@
         <v>0.6319370379657605</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8822</v>
+        <v>0.8814</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7746517888924525</v>
+        <v>-0.7642588622075719</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4625490509458924</v>
+        <v>-0.45348283662630395</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.15602928488355383</v>
+        <v>-0.15711020900224804</v>
       </c>
       <c r="G5" t="n">
-        <v>0.21759826456773934</v>
+        <v>0.20493530999286758</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0976953780626306</v>
+        <v>1.0636256397515187</v>
       </c>
     </row>
   </sheetData>

--- a/outputs_report/Table_simSum_historical.xlsx
+++ b/outputs_report/Table_simSum_historical.xlsx
@@ -126,10 +126,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029806384747358597</v>
+        <v>0.029945787459258313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3832</v>
+        <v>0.3982</v>
       </c>
       <c r="D2" t="n">
         <v>0.024768728085590375</v>
@@ -152,10 +152,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.025442282101289147</v>
+        <v>0.025270880072303565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9074</v>
+        <v>0.8986</v>
       </c>
       <c r="D3" t="n">
         <v>0.017417916879809002</v>
@@ -178,10 +178,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3285006805726723</v>
+        <v>-0.3289247550705696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8752</v>
+        <v>0.875</v>
       </c>
       <c r="D4" t="n">
         <v>-1.200884069822979</v>
@@ -204,10 +204,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3864181585073152</v>
+        <v>0.36670298852715666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4598</v>
+        <v>0.4464</v>
       </c>
       <c r="D5" t="n">
         <v>-0.47910328081702075</v>
@@ -267,25 +267,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.10361095537936856</v>
+        <v>0.06832138307464714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4038</v>
+        <v>0.4302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07139137595843419</v>
+        <v>0.03463301231547237</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09406090933562612</v>
+        <v>0.05722039033729265</v>
       </c>
       <c r="F2" t="n">
-        <v>0.10915892800675997</v>
+        <v>0.0724486085687614</v>
       </c>
       <c r="G2" t="n">
-        <v>0.12491717739787672</v>
+        <v>0.08817441340745216</v>
       </c>
       <c r="H2" t="n">
-        <v>0.14602850638300593</v>
+        <v>0.10931026393116583</v>
       </c>
     </row>
     <row r="3">
@@ -293,25 +293,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1567113216806361</v>
+        <v>0.16304865057219206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1856</v>
+        <v>0.3306</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14406074705632738</v>
+        <v>0.1430567502331124</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1602208235590588</v>
+        <v>0.1590313793240444</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17219167396714474</v>
+        <v>0.17090650311416938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.18462651990350848</v>
+        <v>0.18311120699878847</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2039943698068251</v>
+        <v>0.20222521363483711</v>
       </c>
     </row>
     <row r="4">
@@ -319,25 +319,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.393759213434451</v>
+        <v>-0.2609980049403589</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1138</v>
+        <v>0.2112</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.559800046756295</v>
+        <v>-0.564423462530661</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.21142286967326024</v>
+        <v>-0.22072571873490096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.017823354381452897</v>
+        <v>0.008415011616834056</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2530530875850382</v>
+        <v>0.23988558105991464</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6158901087989077</v>
+        <v>0.5977048902767074</v>
       </c>
     </row>
     <row r="5">
@@ -345,25 +345,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.23970740326992024</v>
+        <v>0.017261853663295135</v>
       </c>
       <c r="C5" t="n">
-        <v>0.517</v>
+        <v>0.3864</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6060840550651159</v>
+        <v>-0.6060354393798886</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.196229634840153</v>
+        <v>-0.19805005180278967</v>
       </c>
       <c r="F5" t="n">
-        <v>0.20691202397543695</v>
+        <v>0.1958551146706995</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7661123946570869</v>
+        <v>0.7426429346913948</v>
       </c>
       <c r="H5" t="n">
-        <v>1.851168629144542</v>
+        <v>1.811609910895365</v>
       </c>
     </row>
   </sheetData>
@@ -408,25 +408,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06555341590682408</v>
+        <v>0.030263843602102648</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4994</v>
+        <v>0.5098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04363721101244466</v>
+        <v>0.007966173626803873</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0568792581878948</v>
+        <v>0.021271773948206847</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06556555449067433</v>
+        <v>0.029945697806857373</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07463659625828681</v>
+        <v>0.039024914271163766</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08802956058478767</v>
+        <v>0.052433303022170544</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +434,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.096320844630497</v>
+        <v>0.10563171312312003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.145</v>
+        <v>0.4624</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09093375997709403</v>
+        <v>0.09108170204475756</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09972855014391979</v>
+        <v>0.09987426813568995</v>
       </c>
       <c r="F3" t="n">
-        <v>0.10643499024242487</v>
+        <v>0.10661509015736825</v>
       </c>
       <c r="G3" t="n">
-        <v>0.11333968857606655</v>
+        <v>0.11356253568250765</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1230834564037469</v>
+        <v>0.12331667793279737</v>
       </c>
     </row>
     <row r="4">
@@ -460,25 +460,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.595116859354557</v>
+        <v>0.24723936664807256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9028</v>
+        <v>0.567</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.281157039799116</v>
+        <v>-0.27394578022677</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.006979241493880042</v>
+        <v>-5.739356213274136E-4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.18556782707050368</v>
+        <v>0.19248262011327585</v>
       </c>
       <c r="G4" t="n">
-        <v>0.398419700386967</v>
+        <v>0.40650606121017596</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7031648335539682</v>
+        <v>0.7145835903032633</v>
       </c>
     </row>
     <row r="5">
@@ -486,25 +486,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6319370379657605</v>
+        <v>0.5530584215377319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8814</v>
+        <v>0.867</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7642588622075719</v>
+        <v>-0.7619841088638177</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.45348283662630395</v>
+        <v>-0.45243952392068876</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.15711020900224804</v>
+        <v>-0.15293037742587035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.20493530999286758</v>
+        <v>0.20833044584169413</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0636256397515187</v>
+        <v>1.0798120435824339</v>
       </c>
     </row>
   </sheetData>
